--- a/General Awareness/data_gen_awareness.xlsx
+++ b/General Awareness/data_gen_awareness.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QuestionBank-Workflow\General Awareness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B4E602-F3DB-476A-B7BC-79003F07F2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA39634-FF07-42B9-BCA6-68B49602E6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14784" yWindow="816" windowWidth="8256" windowHeight="11424" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curr Symb" sheetId="1" r:id="rId1"/>
+    <sheet name="states" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Curr Symb'!$A$1:$A$28</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Ruble</t>
   </si>
@@ -106,13 +107,97 @@
   </si>
   <si>
     <t>Zloty</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +209,12 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,12 +237,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -580,4 +675,166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8026F1A8-FF90-4A7C-8A05-3062B0EF3E2B}">
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A28">
+    <sortCondition ref="A1:A28"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>